--- a/biology/Botanique/Liste_des_espèces_du_genre_Bulbophyllum/Liste_des_espèces_du_genre_Bulbophyllum.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Bulbophyllum/Liste_des_espèces_du_genre_Bulbophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Liste des espèces du genre Bulbophyllum, appartenant à la famille des orchidées[1].
+Liste des espèces du genre Bulbophyllum, appartenant à la famille des orchidées.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A
-Bulbophyllum abbreviatum (Rchb.f.) Schltr. 1924
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bulbophyllum abbreviatum (Rchb.f.) Schltr. 1924
 Bulbophyllum abbrevilabium Carr 1932
 Bulbophyllum aberrans Schltr. 1911
 Bulbophyllum ablepharon Schltr. 1923
@@ -659,9 +676,43 @@
 Bulbophyllum auriculatum J.J.Verm. &amp; P.O'Byrne 2003
 Bulbophyllum auriflorum H.Perrier 1937
 Bulbophyllum auroreum J.J.Sm. 1928
-Bulbophyllum averyanovii Seidenf. 1992
-B
-Bulbophyllum bacilliferum J.J.Sm. 1928
+Bulbophyllum averyanovii Seidenf. 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bulbophyllum bacilliferum J.J.Sm. 1928
 Bulbophyllum baculiferum Ridl. 1916
 Bulbophyllum baileyi F.Muell. 1875: Bailey's Bulbophyllum
 Bulbophyllum bakhuizenii Steenis in A.Hamzah &amp; M.Toha 1972
@@ -746,9 +797,43 @@
 Bulbophyllum bulliferum J.J.Sm. 1908
 Bulbophyllum burfordiense Garay, Hamer &amp; Siegerist 1996: Burford Bulbophyllum
 Bulbophyllum burkillii Gage 1906
-Bulbophyllum burttii Summerh. 1953
-C
-Bulbophyllum cadetioides Schltr. 1913: Cadetia-like Bulbophyllum
+Bulbophyllum burttii Summerh. 1953</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bulbophyllum cadetioides Schltr. 1913: Cadetia-like Bulbophyllum
 Bulbophyllum caecilii J.J.Sm. 1927
 Bulbophyllum caecum J.J.Sm. 1926
 Bulbophyllum caespitosum Thouars 1822
@@ -951,9 +1036,43 @@
 Bulbophyllum cylindrocarpum var. andringitrense Bosser 2000
 Bulbophyllum cylindrocarpum var. aurantiacum Frapp. ex Cordem. 1895
 Bulbophyllum cylindrocarpum var. cylindrocarpum
-Bulbophyllum cylindrocarpum var. olivaceum Frapp. ex Cordem. 1895
-D
-Bulbophyllum dagamense Ames 1915
+Bulbophyllum cylindrocarpum var. olivaceum Frapp. ex Cordem. 1895</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bulbophyllum dagamense Ames 1915
 Bulbophyllum dalatense Gagnep. 1930
 Bulbophyllum danii Perez-Vera 2003
 Bulbophyllum dasypetalum Rolfe ex Ames 1905
@@ -1031,9 +1150,43 @@
 Bulbophyllum dschischungarense Schltr. 1913
 Bulbophyllum dubium J.J.Sm. 1909
 Bulbophyllum dunstervillei Garay 1976
-Bulbophyllum dusenii Kraenzl. 1911
-E
-Bulbophyllum ebracteolatum Kraenzl. 1916
+Bulbophyllum dusenii Kraenzl. 1911</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bulbophyllum ebracteolatum Kraenzl. 1916
 Bulbophyllum ebulbe Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
 Bulbophyllum echinochilum Kraenzl. 1921: Hedgehog-like Lip Bulbophyllum
 Bulbophyllum echinolabium J.J.Sm. 1934: Hedgehog-shaped Lip Bulbophyllum
@@ -1094,9 +1247,43 @@
 Bulbophyllum exile Ames 1908
 Bulbophyllum exilipes Schltr. 1913
 Bulbophyllum expallidum J.J.Verm. 1984
-Bulbophyllum exquisitum Ames 1923
-F
-Bulbophyllum facetum Garay, Hamer &amp; Siegerist 1996
+Bulbophyllum exquisitum Ames 1923</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bulbophyllum facetum Garay, Hamer &amp; Siegerist 1996
 Bulbophyllum falcatocaudatum J.J.Sm. 1914
 Bulbophyllum falcatum (Lindl.) Rchb.f. in W.G.Walpers 1861
 Bulbophyllum falcatum var. bufo (Lindl.) Govaerts 1996: Sickle-shaped Leaf Bulbophyllum
@@ -1117,7 +1304,7 @@
 Bulbophyllum fascinator (Rolfe) Rolfe 1908
 Bulbophyllum faunula Ridl. 1916
 Bulbophyllum fayi J.J.Verm. 1992
-Bulbophyllum fendlerianum sp. n[2].
+Bulbophyllum fendlerianum sp. n.
 Bulbophyllum fenixii Ames, Philipp. J. Sci., C 8: 430 (1913 publ. 1914).
 Bulbophyllum ferkoanum Schltr. 1918
 Bulbophyllum fibratum (Gagnep.) T.B.Nguyen &amp; D.H.Duong in T.B.Nguyen (ed.) 1984
@@ -1185,9 +1372,43 @@
 Bulbophyllum fuscum Lindl. 1839
 Bulbophyllum fuscum var. fuscum
 Bulbophyllum fuscum var. melinostachyum (Schltr.) J.J.Verm. 1986
-Bulbophyllum futile J.J.Sm. 1908
-G
-Bulbophyllum gadgarrense Rupp 1949: Gadgar Bulbophyllum
+Bulbophyllum futile J.J.Sm. 1908</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bulbophyllum gadgarrense Rupp 1949: Gadgar Bulbophyllum
 Bulbophyllum gajoense J.J.Sm. 1943
 Bulbophyllum galactanthum Schltr. 1921
 Bulbophyllum galliaheneum P.Royen 1979
@@ -1242,7 +1463,1949 @@
 Bulbophyllum gravidum Lindl. 1862
 Bulbophyllum griffithii (Lindl.) Rchb.f. in W.G.Walpers 1861: Griffith's Bulbophyllum
 Bulbophyllum groeneveldtii J.J.Sm. 1920
-Bulbophyllum grotianum J.J.Verm. </t>
+Bulbophyllum grotianum J.J.Verm. 2002
+Bulbophyllum grudense J.J.Sm. 1905
+Bulbophyllum guamense Ames 1914
+Bulbophyllum gusdorfii J.J.Sm. 1917
+Bulbophyllum guttatum Schltr. 1913
+Bulbophyllum guttifilum Seidenf. 1996
+Bulbophyllum guttulatum (Hook.f.) N.P.Balakr. 1970: Small-spotted Bulbophyllum
+Bulbophyllum gyaloglossum J.J.Verm. 1993
+Bulbophyllum gymnopus Hook.f. 1890
+Bulbophyllum gyrochilum Seidenf. 1979</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bulbophyllum habbemense P.Royen 1979
+Bulbophyllum habrotinum J.J.Verm. &amp; A.L.Lamb 1994
+Bulbophyllum hahlianum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum hainanense Z.H.Tsi 1981
+Bulbophyllum halconense Ames 1907
+Bulbophyllum hamadryas Schltr. 1913
+Bulbophyllum hamadryas var. hamadryas
+Bulbophyllum hamadryas var. orientale Schltr. 1913
+Bulbophyllum hamatipes J.J.Sm. 1918
+Bulbophyllum hamelinii W.Watson 1893
+Bulbophyllum haniffii Carr 1932
+Bulbophyllum hans-meyeri J.J.Wood 1981
+Bulbophyllum hapalanthos Garay 1999
+Bulbophyllum harposepalum Schltr. 1913
+Bulbophyllum hashimotoi T.Yukawa &amp; K.Karas. 1997
+Bulbophyllum hassallii Kores 1989
+Bulbophyllum hastiferum Schltr. 1911
+Bulbophyllum hatusimanum Tuyama 1940
+Bulbophyllum heldiorum J.J.Verm. 1991
+Bulbophyllum helenae (Kuntze) J.J.Sm. 1912
+Bulbophyllum heliophilum J.J.Sm. 1929
+Bulbophyllum helix Schltr. 1913
+Bulbophyllum hellwigianum Kraenzl. ex Warb. 1893
+Bulbophyllum hemiprionotum J.J.Verm. &amp; A.L.Lamb 1994
+Bulbophyllum henanense J.L.Lu 1992
+Bulbophyllum henrici Schltr. 1924
+Bulbophyllum herbula Frapp. ex Cordem. 1895
+Bulbophyllum heteroblepharon Schltr. 1913
+Bulbophyllum heterorhopalon Schltr. 1913
+Bulbophyllum heterosepalum Schltr. 1913
+Bulbophyllum hexarhopalon Schltr. 1906
+Bulbophyllum hexurum Schltr. 1913
+Bulbophyllum hians Schltr. 1913
+Bulbophyllum hians var. alticola Schltr. 1913
+Bulbophyllum hians var. hians
+Bulbophyllum hiepii Aver. 1992
+Bulbophyllum hildebrandtii Rchb.f. 1881
+Bulbophyllum hiljeae J.J.Verm. 1991
+Bulbophyllum hirsutissimum Kraenzl. 1912
+Bulbophyllum hirsutiusculum H.Perrier 1937
+Bulbophyllum hirsutum (Blume) Lindl. 1830: Shaggy Bulbophyllum
+Bulbophyllum hirtulum Ridl. 1900
+Bulbophyllum hirtum (Sm.) Lindl. 1830: Bristly Bulbophyllum, Kerr's Bulbophyllum
+Bulbophyllum hirudiniferum J.J.Verm. 1982
+Bulbophyllum hirundinis (Gagnep.) Seidenf. (1973 publ. 1974): Swallow-shaped Bulbophyllum
+Bulbophyllum hispidum (sv) Ridl. 1897
+Bulbophyllum hodgsonii M.R.Hend. 1927
+Bulbophyllum hollandianum J.J.Sm. 1913
+Bulbophyllum holochilum J.J.Sm. 1912
+Bulbophyllum holochilum var. aurantiacum J.J.Sm. 1916
+Bulbophyllum holochilum var. holochilum
+Bulbophyllum holochilum var. pubescens J.J.Sm. 1916
+Bulbophyllum horizontale Bosser 1965
+Bulbophyllum horridulum J.J.Verm. 1986
+Bulbophyllum hovarum Schltr. 1924
+Bulbophyllum howcroftii Garay, Hamer &amp; Siegerist 1995: Howcroft's Bulbophyllum
+Bulbophyllum hoyifolium J.J.Verm. 1993
+Bulbophyllum humbertii Schltr. 1922
+Bulbophyllum humblotii Rolfe 1891
+Bulbophyllum humile Schltr. 1913
+Bulbophyllum humiligibbum J.J.Sm. 1927
+Bulbophyllum hyalinum Schltr. 1924
+Bulbophyllum hydrophilum J.J.Sm. 1905
+Bulbophyllum hymenanthum Hook.f. 1890
+Bulbophyllum hymenobracteum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum hymenobracteum var. giriwoense J.J.Sm. 1916
+Bulbophyllum hymenobracteum var. hymenobracteum
+Bulbophyllum hymenochilum Kraenzl. 1904: Diamond-shaped Petal Bulbophyllum
+Bulbophyllum hystricinum Schltr. 1913</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bulbophyllum ialibuense Ormerod 2002
+Bulbophyllum iboense Schltr. 1913
+Bulbophyllum icteranthum Schltr. 1913
+Bulbophyllum idenburgense J.J.Sm. 1929
+Bulbophyllum igneum J.J.Sm. 1913
+Bulbophyllum ignevenosum Carr 1930
+Bulbophyllum ignobile J.J.Sm. 1934
+Bulbophyllum ikongoense H.Perrier 1937
+Bulbophyllum illecebrum J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum illudens Ridl. 1917
+Bulbophyllum imbricans J.J.Sm. 1912
+Bulbophyllum imbricatum Lindl. 1841: Imbricate Bulbophyllum
+Bulbophyllum imerinense Schltr. 1925
+Bulbophyllum imitator J.J.Verm. 1992
+Bulbophyllum impar Ridl. 1917
+Bulbophyllum inaequale (Blume) Lindl. 1830
+Bulbophyllum inaequisepalum Schltr. 1923
+Bulbophyllum inauditum Schltr. 1913
+Bulbophyllum incarum Kraenzl. 1905: Incan Bulbophyllum
+Bulbophyllum inciferum J.J.Verm. 1993
+Bulbophyllum incisilabrum J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum inclinatum J.J.Sm. 1935
+Bulbophyllum incommodum Kores 1989
+Bulbophyllum inconspicuum Maxim. 1887: Inconspicuous Bulbophyllum
+Bulbophyllum incumbens Schltr. 1913
+Bulbophyllum incurvum Thouars 1822
+Bulbophyllum iners Rchb.f. 1880
+Bulbophyllum infundibuliforme J.J.Sm. 1900: Garup Bulbophyllum, Trumpet-shaped Bulbophyllum
+Bulbophyllum injoloense De Wild. 1916
+Bulbophyllum injoloense subsp. injoloense
+Bulbophyllum injoloense subsp. pseudoxypterum (J.J.Verm.) J.J.Verm. 1986
+Bulbophyllum inops Rchb.f. 1880
+Bulbophyllum inornatum J.J.Verm. 1987
+Bulbophyllum inquirendum J.J.Verm. 1993
+Bulbophyllum insectiferum Barb.Rodr. 1882
+Bulbophyllum insolitum Bosser 1971
+Bulbophyllum insulsum (Gagnep.) Seidenf. (1973 publ. 1974).
+Bulbophyllum intermedium F.M.Bailey 1901
+Bulbophyllum intersitum J.J.Verm. 1993
+Bulbophyllum intertextum Lindl. 1862
+Bulbophyllum intricatum Seidenf. 1979: Intricate Bulbophyllum
+Bulbophyllum inunctum J.J.Sm. 1906
+Bulbophyllum inversum Schltr. 1913
+Bulbophyllum invisum Ames 1922
+Bulbophyllum involutum Borba. Semir &amp; F.Barros 1998
+Bulbophyllum ionophyllum J.J.Verm. 1991
+Bulbophyllum ipanemense Hoehne 1938: Ipanema Bulbophyllum
+Bulbophyllum ischnopus Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum ischnopus var. ischnopus
+Bulbophyllum ischnopus var. rhodoneuron Schltr. 1913
+Bulbophyllum iterans J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum ivorense P.J.Cribb &amp; Perez-Vera 1975</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bulbophyllum jaapii Szlach. &amp; Olszewski 2001
+Bulbophyllum jamaicense Cogn. 1909
+Bulbophyllum janus J.J.Verm. 2002
+Bulbophyllum japonicum (Makino) Makino 1910: Japanese Bulbophyllum
+Bulbophyllum jensenii J.J.Sm. 1926
+Bulbophyllum jiewhoei J.J.Verm. &amp; P.O'Byrne 2000
+Bulbophyllum johannis H.Wendl. &amp; Kraenzl. 1894
+Bulbophyllum johannulii J.J.Verm. 1982
+Bulbophyllum johnsonii T.E.Hunt 1950: Johnson's Bulbophyllum
+Bulbophyllum jolandae J.J.Verm. 1991
+Bulbophyllum josephi (Kuntze) Summerh. 1945
+Bulbophyllum josephi var. josephi
+Bulbophyllum josephi var. mahonii (Rolfe) J.J.Verm. 1986
+Bulbophyllum jumellianum Schltr. 1913</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bulbophyllum kainochiloides H.Perrier 1937
+Bulbophyllum kaitiense Rchb.f. in W.G.Walpers 1861
+Bulbophyllum kanburiense Seidenf. 1970
+Bulbophyllum kaniense Schltr. 1913
+Bulbophyllum kauloense Schltr. 1913
+Bulbophyllum kautskyi Toscano 2000
+Bulbophyllum keekee N.Hall 1977
+Bulbophyllum kegelii Hamer &amp; Garay (1995 publ. 1997).
+Bulbophyllum kelelense Schltr. 1913
+Bulbophyllum kempfii Schltr. 1921
+Bulbophyllum kemulense J.J.Sm. 1931
+Bulbophyllum kenae J.J.Verm. 1993
+Bulbophyllum kenejiense W.Kittr. (1984 publ. 1985).
+Bulbophyllum keralense M.Kumar &amp; Sequiera 2001
+Bulbophyllum kermesinum Ridl. 1889
+Bulbophyllum kestron J.J.Verm. &amp; A.L.Lamb 1988
+Bulbophyllum kettredgei (Garay, Hamer &amp; Siegerist) J.J.Verm. 1996
+Bulbophyllum khaoyaiense Seidenf. 1970
+Bulbophyllum khasyanum Griff. 1851
+Bulbophyllum kieneri Bosser 1971
+Bulbophyllum kirroanthum Schltr. 1911
+Bulbophyllum kivuense J.J.Verm. 1986
+Bulbophyllum kjellbergii J.J.Sm. 1933
+Bulbophyllum klabatense Schltr. 1911
+Bulbophyllum klossii Ridl. 1916
+Bulbophyllum kontumense Gagnep. 1950
+Bulbophyllum korimense J.J.Sm. 1929
+Bulbophyllum korinchense Ridl. 1917
+Bulbophyllum korthalsii Schltr. 1907
+Bulbophyllum kupense P.J.Cribb &amp; B.J.Pollard 2004
+Bulbophyllum kusaiense Tuyama 1940
+Bulbophyllum kwangtungense Schltr. 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Bulbophyllum labatii Bosser 2004
+Bulbophyllum laciniatum (Barb.Rodr.) Cogn. in C.F.P.von Martius 1902: Small-tipped Bulbophyllum
+Bulbophyllum lacinulosum J.J.Sm. 1927
+Bulbophyllum laetum J.J.Verm. 1996
+Bulbophyllum lageniforme F.M.Bailey 1904
+Bulbophyllum lakatoense Bosser 1969
+Bulbophyllum lambii J.J.Verm. 1991
+Bulbophyllum lamelluliferum J.J.Sm. 1913
+Bulbophyllum lamii J.J.Sm. 1929
+Bulbophyllum lamingtonense D.L.Jones 1993
+Bulbophyllum lancifolium Ames 1912
+Bulbophyllum lancilabium Ames 1915
+Bulbophyllum lancipetalum Ames 1912
+Bulbophyllum lancisepalum H.Perrier 1938
+Bulbophyllum languidum J.J.Sm. 1922
+Bulbophyllum lanuginosum J.J.Verm. 2002
+Bulbophyllum laoticum Gagnep. 1930: Laotian Bulbophyllum
+Bulbophyllum lasianthum Lindl. 1855
+Bulbophyllum lasiochilum C.S.P.Parish &amp; Rchb.f. 1874:Shaggy-lipped Bulbophyllum
+Bulbophyllum lasioglossum Rolfe ex Ames 1905
+Bulbophyllum lasiopetalum Kraenzl. 1916
+Bulbophyllum latibrachiatum J.J.Sm. 1908
+Bulbophyllum latibrachiatum var. epilosum J.J.Sm. 1913
+Bulbophyllum latibrachiatum var. latibrachiatum
+Bulbophyllum latipes J.J.Sm. 1935
+Bulbophyllum latipetalum H.Perrier 1951
+Bulbophyllum latisepalum Ames &amp; C.Schweinf. in O.Ames 1920
+Bulbophyllum laxiflorum (Blume) Lindl. 1830
+Bulbophyllum laxum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum leandrianum H.Perrier 1937
+Bulbophyllum lecouflei Bosser 1989
+Bulbophyllum ledungense Tang &amp; F.T.Wang 1974
+Bulbophyllum lehmannianum Kraenzl. 1899
+Bulbophyllum leibergii Ames &amp; Rolfe in O.Ames 1915
+Bulbophyllum lemnifolium Schltr. 1913
+Bulbophyllum lemniscatoides Rolfe 1890: Lemniscatum-like Bulbophyllum
+Bulbophyllum lemniscatoides var. exappendiculatum 1920
+Bulbophyllum lemniscatoides var. lemniscatoides
+Bulbophyllum lemniscatum C.S.P.Parish ex Hook.f. 1872: Tape-decorated Bulbophyllum
+Bulbophyllum lemurense Bosser &amp; P.J.Cribb in D.J.Du Puy &amp; al. 1999
+Bulbophyllum leniae J.J.Verm. 1991
+Bulbophyllum leonii Kraenzl. 1899
+Bulbophyllum leontoglossum Schltr. 1913
+Bulbophyllum leopardinum (Wall.) Lindl. in N.Wallich 1829: Leopard-spotted Bulbophyllum
+Bulbophyllum leopardinum var. leopardinum
+Bulbophyllum leopardinum var. tuberculatum N.P.Balakr. &amp; Sud.Chowdhury 1967
+Bulbophyllum lepantense Ames 1912
+Bulbophyllum lepanthiflorum Schltr. 1913: Lepanthes-like Bulbophyllum
+Bulbophyllum leproglossum J.J.Verm. &amp; A.L.Lamb 1988
+Bulbophyllum leptanthum Hook.f. 1890
+Bulbophyllum leptobulbon J.J.Verm. 1996
+Bulbophyllum leptocaulon Kraenzl. 1916
+Bulbophyllum leptochlamys Schltr. 1924
+Bulbophyllum leptoleucum Schltr. 1913
+Bulbophyllum leptophyllum W.Kittr. (1984 publ. 1985).
+Bulbophyllum leptopus Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum leptosepalum Hook.f. 1890
+Bulbophyllum leptostachyum Schltr. 1922
+Bulbophyllum leucorhodum Schltr. 1913
+Bulbophyllum leucothyrsus Schltr. 1913: White-flowered Bunch Bulbophyllum
+Bulbophyllum levanae Ames 1915: Levan's Bulbophyllum
+Bulbophyllum levanae var. giganteum Quisumb. &amp; C.Schweinf. 1953
+Bulbophyllum levanae var. levanae: Triangular-sepal Bulbophyllum
+Bulbophyllum levatii Kraenzl. 1929
+Bulbophyllum levatii subsp. levatii
+Bulbophyllum levatii subsp. mischanthum J.J.Verm. 1993
+Bulbophyllum leve Schltr. 1913
+Bulbophyllum levidense J.J.Sm. 1929
+Bulbophyllum levinei Schltr. 1924
+Bulbophyllum levyae Garay, Hamer &amp; Siegerist 1995: Levy's Bulbophyllum
+Bulbophyllum lewisense B.Gray &amp; D.L.Jones 1989: Lewis Bulbophyllum
+Bulbophyllum leytense Ames 1915
+Bulbophyllum lichenoides Schltr. 1913
+Bulbophyllum lichenophylax Schltr. 1924
+Bulbophyllum ligulatum W.Kittr. (1984 publ. 1985).
+Bulbophyllum ligulifolium J.J.Sm. 1934
+Bulbophyllum lilacinum Ridl. 1897: Lilac Bulbophyllum
+Bulbophyllum lilianae Rendle 1917: Lilian's Bulbophyllum
+Bulbophyllum limbatum Lindl. 1840
+Bulbophyllum lindleyanum Griff. 1851: Lindley's Bulbophyllum
+Bulbophyllum lineare Frapp. ex Cordem. 1895
+Bulbophyllum lineariflorum J.J.Sm. 1911
+Bulbophyllum linearifolium King &amp; Pantl. 1897
+Bulbophyllum linearilabium J.J.Sm. 1912
+Bulbophyllum lineariligulatum Schltr. 1924
+Bulbophyllum lineatum (Teijsm. &amp; Binn.) J.J.Sm. 1912
+Bulbophyllum lineolatum Schltr. 1913
+Bulbophyllum linggense J.J.Sm. 1922
+Bulbophyllum lingulatum Rendle 1921
+Bulbophyllum lingulatum f. lingulatum
+Bulbophyllum lingulatum f. microphyton (Guillaumin) N.Hall 1977
+Bulbophyllum liparidioides Schltr. 1924
+Bulbophyllum lipense Ames 1923
+Bulbophyllum lissoglossum J.J.Verm. 1991: Smooth-lipped Bulbophyllum
+Bulbophyllum lizae J.J.Verm. 1984
+Bulbophyllum lobbii Lindl. 1847: Lobb's Bulbophyllum, Thailand Bulbophyllum, Sumatran Bulbophyllum
+Bulbophyllum loherianum (Kraenzl.) Ames in E.D.Merrill 1925
+Bulbophyllum lohokii J.J.Verm. &amp; A.L.Lamb 1994
+Bulbophyllum lokonense Schltr. 1911
+Bulbophyllum lonchophyllum Schltr. 1913
+Bulbophyllum longhutense J.J.Sm. 1931
+Bulbophyllum longibrachiatum Z.H.Tsi 1981
+Bulbophyllum longibracteatum Seidenf. 1979
+Bulbophyllum longicaudatum (J.J.Sm.) J.J.Sm. 1914: Long-tailed Bulbophyllum
+Bulbophyllum longiflorum Thouars 1822
+Bulbophyllum longilabre Schltr. 1912
+Bulbophyllum longimucronatum Ames &amp; C.Schweinf. in O.Ames 1920
+Bulbophyllum longipedicellatum J.J.Sm. 1910: Long-stalked Bulbophyllum
+Bulbophyllum longipedicellatum var. gjellerupii J.J.Sm. 1911
+Bulbophyllum longipedicellatum var. longipedicellatum
+Bulbophyllum longipetalum Pabst 1964: Long-petaled Bulbophyllum
+Bulbophyllum longipetiolatum Ames 1912
+Bulbophyllum longirepens Ridl. 1908
+Bulbophyllum longirostre Schltr. 1913
+Bulbophyllum longiscapum Rolfe 1896: Long-scaped Bulbophyllum
+Bulbophyllum longisepalum Rolfe 1895: Long-sepaled Bulbophyllum
+Bulbophyllum longispicatum Cogn. 1893: Long-inflorescence Bulbophyllum
+Bulbophyllum longissimum (Ridl.) J.J.Sm. 1912: Long-petaled Bulbophyllum
+Bulbophyllum longivagans Carr 1933
+Bulbophyllum longivaginans H.Perrier 1937
+Bulbophyllum lophoglottis (Guillaumin) N.Hall 1977
+Bulbophyllum lophoton J.J.Verm. 1993
+Bulbophyllum lordoglossum J.J.Verm. &amp; A.L.Lamb 1994
+Bulbophyllum lorentzianum J.J.Sm. 1910
+Bulbophyllum loroglossum J.J.Verm. 1993
+Bulbophyllum louisiadum Schltr. 1919
+Bulbophyllum loxophyllum Schltr. 1913
+Bulbophyllum luanii Tixier 1965
+Bulbophyllum lucidum Schltr. 1924
+Bulbophyllum luciphilum Stvart 2000
+Bulbophyllum luckraftii F.Muell. 1882
+Bulbophyllum luederwaldtii Hoehne &amp; Schltr. 1926
+Bulbophyllum lumbriciforme J.J.Sm. 1920
+Bulbophyllum lundianum Rchb.f. &amp; Warm. in H.G.Reichenbach 1881
+Bulbophyllum lupulinum Lindl. 1862
+Bulbophyllum luteobracteatum Jum. &amp; H.Perrier 1912
+Bulbophyllum luteopurpureum J.J.Sm. 1907
+Bulbophyllum lygeron J.J.Verm. 1991
+Bulbophyllum lyperocephalurn Schltr. 1924
+Bulbophyllum lyperostachyum Schltr. 1924
+Bulbophyllum lyriforme J.J.Verm. &amp; P.O'Byrne 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Bulbophyllum maboroense Schltr. 1913
+Bulbophyllum machupicchuense D.E.Benn. &amp; Christenson 2001
+Bulbophyllum macilentum J.J.Verm. 1993
+Bulbophyllum macphersonii Rupp 1934: MacPherson's Bulbophyllum
+Bulbophyllum macphersonii var. macphersonii
+Bulbophyllum macphersonii var. spathulatum Dockrill &amp; St.Cloud 1957
+Bulbophyllum macraei (Lindl.) Rchb.f. in W.G.Walpers 1861: Macrae's Bulbophyllum
+Bulbophyllum macraei var. autumnale (Fukuy.) S.S.Ying 1977
+Bulbophyllum macraei var. macraei
+Bulbophyllum macranthoides Kraenzl. 1905: Macrantha-like Bulbophyllum
+Bulbophyllum macranthum Lindl. 1844: Large-flowered Bulbophyllum
+Bulbophyllum macrobulbum J.J.Sm. 1910: Large-bulbed Bulbophyllum
+Bulbophyllum macrocarpum Frapp. ex Cordem. 1895
+Bulbophyllum macroceras Barb.Rodr. 1882
+Bulbophyllum macrochilum Rolfe 1896: Large-lipped Bulbophyllum, Star-shaped Bulbophyllum
+Bulbophyllum macrocoleum Seidenf. 1979
+Bulbophyllum macrorhopalon Schltr. 1913
+Bulbophyllum macrourum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum maculatum Boxall ex Náves in F.M.Blanco 1880
+Bulbophyllum maculosum Ames 1915: Spotted Bulbophyllum
+Bulbophyllum magnibracteatum Summerh. 1935
+Bulbophyllum mahakamense J.J.Sm. 1909
+Bulbophyllum maijenense Schltr. 1913
+Bulbophyllum major (Ridl.) P.Royen 1979
+Bulbophyllum makoyanum (Rchb.f.) Ridl. 1907
+Bulbophyllum malachadenia Cogn. in C.F.P.von Martius 1902
+Bulbophyllum maleolens Kraenzl. 1928
+Bulbophyllum malleolabrum Carr 1932
+Bulbophyllum mamberamense J.J.Sm. 1915
+Bulbophyllum mananjarense Poiss. 1912
+Bulbophyllum manarae Foldats 1968
+Bulbophyllum mandibulare Rchb.f. 1882: Chin-like Bulbophyllum
+Bulbophyllum mangenotii Bosser 1965
+Bulbophyllum manobulbum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum maquilingense Ames &amp; Quisumb. 1932: Mount Makiling Bulbophyllum
+Bulbophyllum marginatum Schltr. 1913
+Bulbophyllum marivelense Ames 1912
+Bulbophyllum marojejiense H.Perrier 1951
+Bulbophyllum marovoense H.Perrier 1951
+Bulbophyllum marudiense Carr 1935
+Bulbophyllum masaganapense Ames 1920
+Bulbophyllum masarangicum Schltr. 1911
+Bulbophyllum maskeliyense Livera 1926
+Bulbophyllum masoalanum Schltr. 1916: Masoala Bulbophyllum
+Bulbophyllum masonii (Senghas) J.J.Wood 1986
+Bulbophyllum mastersianum (Rolfe) J.J.Sm. 1912
+Bulbophyllum matitanense H.Perrier 1937
+Bulbophyllum maudeae A.D.Hawkes 1966
+Bulbophyllum maxillarioides Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum maximum (Lindl.) Rchb.f. in W.G.Walpers 1861: Largest Bulbophyllum, Pointy-winged Bulbophyllum
+Bulbophyllum mayombeense Garay 1999: Mayombe Bulbophyllum
+Bulbophyllum mayrii J.J.Sm. 1934
+Bulbophyllum mearnsii Ames (1913 publ. 1914): Mearns' Bulbophyllum
+Bulbophyllum mediocre Summerh. ex Exell 1959
+Bulbophyllum medusae (Lindl.) Rchb.f. in W.G.Walpers 1861: Medusa's Bulbophyllum
+Bulbophyllum megalonyx Rchb.f. 1881
+Bulbophyllum melanoglossum Hayata 1914
+Bulbophyllum melanoxanthum J.J.Verm. &amp; B.A.Lewis 1991
+Bulbophyllum melilotus J.J.Sm. 1929
+Bulbophyllum melinanthum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum melinoglossum Schltr. 1913
+Bulbophyllum meliphagirostrum P.Royen 1979
+Bulbophyllum melleum H.Perrier 1937
+Bulbophyllum melloi Pabst 1977
+Bulbophyllum membranaceum Teijsm. &amp; Binn. 1855
+Bulbophyllum membranifolium Hook.f. 1890: Thin-membraneaceous Leaf Bulbophyllum
+Bulbophyllum menghaiense Z.H.Tsi 1981
+Bulbophyllum menglunense Z.H.Tsi &amp; Y.Z.Ma 1985
+Bulbophyllum mentiferum J.J.Sm. 1927
+Bulbophyllum mentosum Barb.Rodr. 1877
+Bulbophyllum meridense Rchb.f. 1850
+Bulbophyllum meristorhachis Garay &amp; Dunst. 1976
+Bulbophyllum merrittii Ames 1907
+Bulbophyllum mesodon J.J.Verm. 1993
+Bulbophyllum metonymon Summerh. (1951 publ. 1952).
+Bulbophyllum micholitzianum Kraenzl. 1893
+Bulbophyllum micholitzii Rolfe 1901: Micholitz' Bulbophyllum
+Bulbophyllum micranthum Barb.Rodr. 1877
+Bulbophyllum microblepharon Schltr. 1913
+Bulbophyllum microbulbon Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum microcala P.F.Hunt 1970
+Bulbophyllum microdendron Schltr. 1913
+Bulbophyllum microglossum Ridl. 1908: Small-lipped Bulbophyllum
+Bulbophyllum microlabium W.Kittr. (1984 publ. 1985).
+Bulbophyllum micronesiacum Schltr. 1921
+Bulbophyllum micropetaliforme Leite 1946
+Bulbophyllum microrhombos Schltr. 1912
+Bulbophyllum microsphaerum Schltr. 1913
+Bulbophyllum microtepalum Rchb.f. in W.G.Walpers 1861: Small-tepaled Bulbophyllum
+Bulbophyllum microtes Schltr. 1913
+Bulbophyllum microthamnus Schltr. 1923
+Bulbophyllum mimiense Schltr. 1913
+Bulbophyllum minahassae Schltr. 1911
+Bulbophyllum minax Schltr. 1924
+Bulbophyllum mindanaense Ames 1912
+Bulbophyllum mindorense Ames 1907
+Bulbophyllum miniatum auct. 1904
+Bulbophyllum minutibulbum W.Kittr. (1984 publ. 1985).
+Bulbophyllum minutiflorum Ames &amp; C.Schweinf
+Bulbophyllum minutifolium Stévart 2003
+Bulbophyllum minutilabrum H.Perrier 1937
+Bulbophyllum minutipetalum Schltr. 1913: Small-petaled Bulbophyllum
+Bulbophyllum minutissimum (F.Muell.) F.Muell. 1878 (synonym: Oncophyllum minutissimum (F.Muell.) D.L.Jones &amp; M.A.Clem. 2001)
+Bulbophyllum minutulum Ridl. ex Burkill &amp; Holttum 1923
+Bulbophyllum minutum Thouars 1822
+Bulbophyllum mirabile Hallier f. 1889
+Bulbophyllum mirandaianum Hoehne 1947
+Bulbophyllum mirificum Schltr. 1918
+Bulbophyllum mirum J.J.Sm. 1906
+Bulbophyllum mischobulbon Schltr. 1913
+Bulbophyllum mobilifilum Carr 1929
+Bulbophyllum moldenkeanum A.D.Hawkes 1966
+Bulbophyllum molossus Rchb.f. 1888: Fierce Bulbophyllum
+Bulbophyllum monanthos Ridl. 1897
+Bulbophyllum monanthum (Kuntze) J.J.Sm. 1912: Single-flowered Bulbophyllum
+Bulbophyllum moniliforme C.S.P.Parish &amp; Rchb.f. 1874: Necklace Bulbophyllum
+Bulbophyllum monosema Schltr. 1913
+Bulbophyllum monstrabile Ames 1915
+Bulbophyllum montanum Schltr. 1913
+Bulbophyllum montense Ridl. ex Stapf 1894
+Bulbophyllum moramanganum Schltr. 1922
+Bulbophyllum moratii Bosser 1989
+Bulbophyllum morenoi Dodson &amp; R.Vásquez 1989
+Bulbophyllum moroides J.J.Sm. 1917
+Bulbophyllum morotaiense J.J.Sm. 1932
+Bulbophyllum morphologorum Kraenzl. 1908: Dixon's Bulbophyllum
+Bulbophyllum mucronatum (Blume) Lindl. 1830
+Bulbophyllum mucronifolium Rchb.f. &amp; Warm. in H.G.Reichenbach 1881
+Bulbophyllum mulderae J.J.Verm. 1993
+Bulbophyllum multiflexum J.J.Sm. 1927
+Bulbophyllum multiflorum Ridl. 1885
+Bulbophyllum multiligulatum H.Perrier 1937
+Bulbophyllum multivaginatum Jum. &amp; H.Perrier 1912
+Bulbophyllum muricatum J.J.Sm. 1911
+Bulbophyllum muriceum Schltr. 1913
+Bulbophyllum murkelense J.J.Sm. 1928
+Bulbophyllum muscarirubrum Seidenf. 1979: Brickred-brush Bulbophyllum
+Bulbophyllum muscicola Rchb.f. 1872: Hooker's Bulbophyllum
+Bulbophyllum muscohaerens J.J.Verm. &amp; A.L.Lamb 1994
+Bulbophyllum mutabile (Blume) Lindl. 1830
+Bulbophyllum mutabile var. mutabile
+Bulbophyllum mutabile var. obesum J.J.Sm. 1991
+Bulbophyllum mutatum J.J.Sm. 1916
+Bulbophyllum myolaense Garay, Hamer &amp; Siegerist 1995: Myola Bulbophyllum
+Bulbophyllum myon J.J.Verm. 1990
+Bulbophyllum myrmecochilum Schltr. 1924
+Bulbophyllum myrtillus Schltr. 1913
+Bulbophyllum mysorense (Rolfe) J.J.Sm. 1912
+Bulbophyllum mystax Schuit. &amp; de Vogel 2002
+Bulbophyllum mystrochilum Schltr. 1913
+Bulbophyllum mystrophyllum Schltr. 1919</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bulbophyllum nabawanense J.J.Wood &amp; A.L.Lamb 1994
+Bulbophyllum nagelii L.O.Williams 1939
+Bulbophyllum namoronae Bosser 1971
+Bulbophyllum nannodes Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum nanopetalum Seidenf. 1979
+Bulbophyllum napellii Lindl. 1842: Napell's Bulbophyllum
+Bulbophyllum nasica Schltr. 1913
+Bulbophyllum nasilabium Schltr. 1921
+Bulbophyllum nasseri Garay 1999
+Bulbophyllum navicula Schltr. 1913
+Bulbophyllum nebularum Schltr. 1913
+Bulbophyllum neglectum Bosser 1965
+Bulbophyllum negrosianum Ames 1912
+Bulbophyllum nematocaulon Ridl. 1920
+Bulbophyllum nematopodum F.Muell. 1872: Worm-like Foot Bulbophyllum
+Bulbophyllum nematorhizis Schltr. 1913
+Bulbophyllum nemorale L.O.Williams 1938
+Bulbophyllum nemorosum (Barb.Rodr.) Cogn. in C.F.P.von Martius 1902
+Bulbophyllum neocaledonicum Schltr. 1906
+Bulbophyllum neoguineense J.J.Sm. 1908
+Bulbophyllum neopommeranicum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum nephropetalum Schltr. 1919
+Bulbophyllum nervulosum Frapp. ex Cordem. 1895
+Bulbophyllum nesiotes Seidenf. 1979
+Bulbophyllum newportii (F.M.Bailey) Rolfe 1909: Newport's Bulbophyllum
+Bulbophyllum ngoclinhensis Aver. 1997
+Bulbophyllum ngoyense Schltr. 1906
+Bulbophyllum nieuwenhuisii J.J.Sm. 1926
+Bulbophyllum nigericum Summerh. 1962
+Bulbophyllum nigrescens Rolfe 1910: Narrowly Elliptical Bulbophyllum
+Bulbophyllum nigriflorum H.Perrier 1937
+Bulbophyllum nigrilabium Schltr. 1913
+Bulbophyllum nigripetalum Rolfe 1891
+Bulbophyllum nigritianum Rendle 1913
+Bulbophyllum nigropurpureum Carr 1932
+Bulbophyllum nipondhii Seidenf. 1985
+Bulbophyllum nitens Jum. &amp; H.Perrier 1912
+Bulbophyllum nitidum Schltr. 1912: Shimmering Bulbophyllum
+Bulbophyllum nocturnum J. J. Verm., de Vogel, Schuit. &amp; A. Vogel
+Bulbophyllum nodosum (Rolfe) J.J.Sm. 1912
+Bulbophyllum notabilipetalum Seidenf. 1995
+Bulbophyllum novae-hiberniae Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum nubigenum Schltr. 1913
+Bulbophyllum nubinatum J.J.Verm. 1988
+Bulbophyllum nummularia (H.Wendl. &amp; Kraenzl.) Rolfe in D.Oliver 1897
+Bulbophyllum nummularioides Schltr. 1913
+Bulbophyllum nutans (Thouars) Thouars 1822
+Bulbophyllum nutans var. nutans
+Bulbophyllum nutans var. variifolium (Schltr.) Bosser 1965</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bulbophyllum oblanceolatum King &amp; Pantl. 1897
+Bulbophyllum obliquum Schltr. 1911
+Bulbophyllum obovatifolium J.J.Sm. 1912
+Bulbophyllum obscuriflorum H.Perrier 1937
+Bulbophyllum obtusatum Schltr. 1924
+Bulbophyllum obtusiangulum Z.H.Tsi 1995
+Bulbophyllum obtusilabium W.Kittr. (1984 publ. 1985).
+Bulbophyllum obtusipetalum J.J.Sm. 1905
+Bulbophyllum obtusum (Blume) Lindl. 1830
+Bulbophyllum obyrnei Garay, Hamer &amp; Siegerist 1995
+Bulbophyllum occlusum Ridl. 1885
+Bulbophyllum occultum Thouars 1822
+Bulbophyllum ochraceum (Barb.Rodr.) Cogn. in C.F.P.von Martius 1902
+Bulbophyllum ochrochlamys Schltr. 1913
+Bulbophyllum ochroleucum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum ochthochilum J.J.Verm. 1993
+Bulbophyllum ochthodes J.J.Verm. 2002
+Bulbophyllum octarrhenipetalum J.J.Sm. 1913
+Bulbophyllum octorhopalon Seidenf. 1975
+Bulbophyllum odoardii Rchb.f. &amp; Pfitzer 1884
+Bulbophyllum odontoglossum Schltr. 1913
+Bulbophyllum odontopelatum Schltr. 1913: Tooth-shaped Petal Bulbophyllum
+Bulbophyllum odoratissimum (Sm.) Lindl. ex Hook.f. 1890: Fragrant Bulbophyllum
+Bulbophyllum odoratissimum var. odoratissimum
+Bulbophyllum odoratissimum var. racemosum N.P.Balakr. 1978
+Bulbophyllum odoratum (Blume) Lindl. 1830
+Bulbophyllum odoratum var. grandiflorum J.J.Sm. 1919
+Bulbophyllum odoratum var. odoratum
+Bulbophyllum oliganthum Schltr. 1913
+Bulbophyllum oligoblepharon Schltr. 1911
+Bulbophyllum oligochaete Schltr. 1913
+Bulbophyllum oligoglossum Rchb.f. 1865
+Bulbophyllum olivinum J.J.Sm. 1934
+Bulbophyllum olivinum subsp. linguiferum J.J.Verm. 1993
+Bulbophyllum olivinum subsp. olivinum
+Bulbophyllum olorinum J.J.Sm. 1912
+Bulbophyllum omerandrum Hayata 1914
+Bulbophyllum onivense H.Perrier 1937
+Bulbophyllum oobulbum Schltr. 1913
+Bulbophyllum ophiuchus Ridl. 1886
+Bulbophyllum orbiculare J.J.Sm. 1912
+Bulbophyllum orbiculare subsp. cassideum (J.J.Sm.) J.J.Verm. 1993
+Bulbophyllum orbiculare subsp. orbiculare
+Bulbophyllum orectopetalum Garay, Hamer &amp; Siegerist 1992: Projecting Petal Bulbophyllum
+Bulbophyllum oreocharis Schltr. 1913
+Bulbophyllum oreodorum Schltr. 1924
+Bulbophyllum oreodoxa Schltr. 1913
+Bulbophyllum oreogenum Schltr. 1913
+Bulbophyllum oreonastes Rchb.f. 1881
+Bulbophyllum orezii Sath.Kumar 2004
+Bulbophyllum orientale Seidenf. 1979: Eastern Bulbophyllum
+Bulbophyllum origami J.J.Verm. 1993
+Bulbophyllum ornatissimum (Rchb.f.) J.J.Sm. 1912
+Bulbophyllum ornatum Schltr. 1913
+Bulbophyllum orohense J.J.Sm. 1915
+Bulbophyllum orsidice Ridl. 1916
+Bulbophyllum ortalis J.J.Verm. 1993
+Bulbophyllum orthoglossum Kraenzl. 1896: Bird Head-like Lip Bulbophyllum
+Bulbophyllum orthosepalum J.J.Verm. 1993: Straight-petaled Bulbophyllum
+Bulbophyllum osyricera Schltr. 1911
+Bulbophyllum osyriceroides J.J.Sm. 1920
+Bulbophyllum othonis (Kuntze) J.J.Sm. 1912
+Bulbophyllum otochilum J.J.Verm. 1991
+Bulbophyllum otoglossum Tuyama 1971
+Bulbophyllum ovale Ridl. 1916
+Bulbophyllum ovalifolium (Blume) Lindl. 1830: Oval-leafed Bulbophyllum
+Bulbophyllum ovalitepalum J.J.Sm. in L.S.Gibbs 1917
+Bulbophyllum ovatilabellum Seidenf. 1979
+Bulbophyllum ovatolanceatum J.J.Sm. 1928
+Bulbophyllum ovatum Seidenf. 1979
+Bulbophyllum oxyanthum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum oxycalyx Schltr. 1924
+Bulbophyllum oxycalyx var. oxycalyx
+Bulbophyllum oxycalyx var. rubescens (Schltr.) Bosser 1965
+Bulbophyllum oxychilum Schltr. 1905
+Bulbophyllum oxysepaloides Ridl. 1916</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bulbophyllum pabstii Garay 1973
+Bulbophyllum pachyacris J.J.Sm. 1908
+Bulbophyllum pachyanthum Schltr. 1906
+Bulbophyllum pachyglossum Schltr. 1919
+Bulbophyllum pachyneuron Schltr. 1911
+Bulbophyllum pachypus Schltr. 1924
+Bulbophyllum pachyrhachis (A.Rich.) Griseb. 1864: Broad Rachis Bulbophyllum
+Bulbophyllum pachytelos Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum pahudii (de Vriese) Rchb.f. in W.G.Walpers 1861
+Bulbophyllum paleiferum Schltr. 1924
+Bulbophyllum palilabre J.J.Sm. 1914: Pale-lipped Bulbophyllum
+Bulbophyllum pallens (Jum. &amp; Perrier) Schltr. 1924
+Bulbophyllum pallidiflorum Schltr. 1906
+Bulbophyllum pallidum Seidenf. 1979
+Bulbophyllum pampangense Ames 1923
+Bulbophyllum pan Ridl. 1915
+Bulbophyllum pandanetorum Summerh. (1953 publ. 1954).
+Bulbophyllum pandurella Schltr. 1924
+Bulbophyllum paniscus Ridl. 1916
+Bulbophyllum pantlingii Lucksom (1993 publ. 1994).
+Bulbophyllum pantoblepharon Schltr. 1924
+Bulbophyllum papangense H.Perrier 1937
+Bulbophyllum papilio J.J.Sm. 1910
+Bulbophyllum papillatum J.J.Sm. 1910
+Bulbophyllum papillipetalum Ames 1922
+Bulbophyllum papillosofilum Carr 1929
+Bulbophyllum papuliferum Schltr. 1911
+Bulbophyllum papuliglossum Schltr. 1913
+Bulbophyllum papulipetalum Schltr. 1913
+Bulbophyllum papulosum Garay 1999: Warty Bulbophyllum
+Bulbophyllum parabates J.J.Verm. 1991
+Bulbophyllum paranaense Schltr. 1919
+Bulbophyllum paranaense var. paranaense
+Bulbophyllum pardalinum Ridl. 1916
+Bulbophyllum pardalotum Garay 1995: Leopard-spotted Bulbophyllum
+Bulbophyllum parviflorum C.S.P.Parish &amp; Rchb.f. 1874
+Bulbophyllum parvum Summerh. 1957
+Bulbophyllum patella J.J.Verm. 1993
+Bulbophyllum patens King ex Hook.f. 1896: Spreading Bulbophyllum
+Bulbophyllum pauciflorum Ames 1912
+Bulbophyllum paucisetum J.J.Sm. 1915
+Bulbophyllum paululum Schltr. 1913
+Bulbophyllum pectenveneris (Gagnep.) Seidenf. (1973 publ. 1974): Yellow-flowered Bulbophyllum
+Bulbophyllum pectinatum Finet 1897: Comb-like Bulbophyllum, Grand Bulbophyllum
+Bulbophyllum pelicanopsis J.J.Verm. &amp; A.L.Lamb 1988
+Bulbophyllum peltopus Schltr. 1913
+Bulbophyllum pemae Schltr. 1913
+Bulbophyllum penduliscapum J.J.Sm. 1900
+Bulbophyllum pendulum Thouars 1822
+Bulbophyllum penicillium C.S.P.Parish &amp; Rchb.f. 1874: Brush-lipped Bulbophyllum
+Bulbophyllum peninsulare Seidenf. 1979: eninsula Bulbophyllum
+Bulbophyllum pentaneurum Seidenf. 1979
+Bulbophyllum pentastichum (Pfitzer ex Kraenzl.) H.Perrier 1939
+Bulbophyllum peperomiifolium J.J.Sm. 1918
+Bulbophyllum peramoenum Ames, Philipp. (1913 publ. 1914).
+Bulbophyllum percoroiculatum H.Perrier 1951
+Bulbophyllum perductum J.J.Sm. 1905
+Bulbophyllum perductum var. perductum
+Bulbophyllum perductum var. sebesiense J.J.Sm. 1922
+Bulbophyllum perexiguum Ridl. 1916
+Bulbophyllum perforans J.J.Sm. 1935
+Bulbophyllum perii Schltr. 1922
+Bulbophyllum perparvulum Schltr. 1915
+Bulbophyllum perpendiculare Schltr. 1911
+Bulbophyllum perpusillum H.Wendl. &amp; Kraenzl. 1894
+Bulbophyllum perreflexum Bosser &amp; P.J.Cribb 2001
+Bulbophyllum perrieri Schltr. 1913
+Bulbophyllum pervillei Rolfe ex Scott-Elliot 1891
+Bulbophyllum petiolare Thwaites 1861
+Bulbophyllum petiolatum J.J.Sm. 1910
+Bulbophyllum peyerianum (Kraenzl.) Seidenf. (1973 publ. 1974).
+Bulbophyllum peyrotii Bosser 1965
+Bulbophyllum phaeanthum Schltr. 1911
+Bulbophyllum phaeoglossum Schltr. 1913
+Bulbophyllum phaeoneuron Schltr. 1911
+Bulbophyllum phaeorhabdos Schltr. 1923
+Bulbophyllum phalaenopsis J.J.Sm. 1937: Phalaenopsis-like Bulbophyllum
+Bulbophyllum phayamense Seidenf. 1979
+Bulbophyllum philippinense Ames 1920
+Bulbophyllum phillipsianum Kores 1991
+Bulbophyllum phormion J.J.Verm. 1992
+Bulbophyllum phreatiopse J.J.Verm. 1993
+Bulbophyllum phymatum J.J.Verm. 1982
+Bulbophyllum physocoryphum Seidenf. 1979
+Bulbophyllum picturatum (Lodd.) Rchb.f. in W.G.Walpers 1861
+Bulbophyllum pidacanthum J.J.Verm. 1992
+Bulbophyllum piestobulbon Schltr. 1923
+Bulbophyllum piestoglossum J.J.Verm. 1993: Narrow-labellum Bulbophyllum
+Bulbophyllum pileatum Lindl. 1844: Fibery Bulbophyllum
+Bulbophyllum piliferum J.J.Sm. 1908
+Bulbophyllum pilosum J.J.Verm. 2002
+Bulbophyllum piluliferum King &amp; Pantl. 1895
+Bulbophyllum pinicolum Gagnep. 1930
+Bulbophyllum pipio Rchb.f. 1876
+Bulbophyllum pisibulbum J.J.Sm. 1914
+Bulbophyllum placochilum J.J.Verm. 1991
+Bulbophyllum plagiatum Ridl. 1916
+Bulbophyllum plagiopetalum Schltr. 1913
+Bulbophyllum planibulbe (Ridl.) Ridl. 1907
+Bulbophyllum planitiae J.J.Sm. 1910
+Bulbophyllum platypodum H.Perrier 1937
+Bulbophyllum pleiopterum Schltr. 1912
+Bulbophyllum pleurothallidanthum Garay 1999
+Bulbophyllum pleurothalloides Ames 1907
+Bulbophyllum pleurothallopsis Schltr. 1924
+Bulbophyllum plicatum J.J.Verm. 1993
+Bulbophyllum plumatum Ames 1915
+Bulbophyllum plumosum (Barb.Rodr.) Cogn. in C.F.P.von Martius 1902
+Bulbophyllum plumula Schltr. 1913
+Bulbophyllum pocillum J.J.Verm. 1991
+Bulbophyllum poekilon Carr 1932
+Bulbophyllum poilanei Gagnep. 1930
+Bulbophyllum polliculosum Seidenf. 1973
+Bulbophyllum polyblepharon Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum polycyclum J.J.Verm. 1996
+Bulbophyllum polygaliflorum J.J.Wood 1984
+Bulbophyllum polyphyllum Schltr. 1913
+Bulbophyllum polyrrhizum Lindl. 1830
+Bulbophyllum polystictum Schltr. 1913 (now synonym of Bulbophyllum erythrostictum Ormerod 2005)
+Bulbophyllum popayanense Kraenzl. 1899
+Bulbophyllum porphyrostachys Summerh. 1951
+Bulbophyllum porphyrotriche J.J.Verm. 1991
+Bulbophyllum posticum J.J.Sm. 1911
+Bulbophyllum potamophilum Schltr. 1913
+Bulbophyllum praestans Kraenzl. 1904
+Bulbophyllum praetervisum J.J.Verm. 2002
+Bulbophyllum prianganense J.J.Sm. 1913
+Bulbophyllum prismaticum Thouars 1822
+Bulbophyllum pristis J.J.Sm. 1913
+Bulbophyllum proboscideum (Gagnep.) Seidenf. &amp; Smitinand 1961
+Bulbophyllum procerum Schltr. 1913
+Bulbophyllum proculcastris J.J.Verm. 2000
+Bulbophyllum profusum Ames 1912
+Bulbophyllum propinquum Kraenzl. 1908
+Bulbophyllum prorepens Summerh. (1953 publ. 1954).
+Bulbophyllum protectum H.Perrier 1937
+Bulbophyllum protractum Hook.f. 1890
+Bulbophyllum proudlockii (King &amp; Pantl.) J.J.Sm. 1912
+Bulbophyllum pseudofilicaule J.J.Sm. 1935
+Bulbophyllum pseudopelma J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum pseudoserrulatum J.J.Sm. 1912
+Bulbophyllum pseudotrias J.J.Verm. 1996
+Bulbophyllum psilorhopalon Schltr. 1913
+Bulbophyllum psittacoglossum Rchb.f. 1863: Parrot-tongue Bulbophyllum
+Bulbophyllum psychoon Rchb.f. 1878: Butterfly Egg Bulbophyllum
+Bulbophyllum ptiloglossum H.Wendl. &amp; Kraenzl. 1897
+Bulbophyllum ptilotes Schltr. 1913
+Bulbophyllum ptychantyx J.J.Verm. 1993
+Bulbophyllum pubiflorum Schltr. 1911
+Bulbophyllum pugilanthum J.J.Wood 1994
+Bulbophyllum puguahaanense Ames 1915
+Bulbophyllum pulchellum Ridl. 1907
+Bulbophyllum pulchrum (N.E.Br.) J.J.Sm. 1912
+Bulbophyllum pulvinatum Schltr. 1913
+Bulbophyllum pumilio C.S.P.Parish &amp; Rchb.f. 1874
+Bulbophyllum punamense Schltr. 1913
+Bulbophyllum punctatum Barb.Rodr. 1877
+Bulbophyllum pungens Schltr. 1913
+Bulbophyllum pungens var. pachyphyllum Schltr. 1913
+Bulbophyllum pungens var. pungens
+Bulbophyllum puntjakense J.J.Sm. 1907
+Bulbophyllum purpurascens Teijsm. &amp; Binn. 1862: Purple Bulbophyllum
+Bulbophyllum purpurellum Ridl. 1916
+Bulbophyllum purpureorhachis (De Wild.) Schltr. 1914: Purple Inflorescence Bulbophyllum
+Bulbophyllum purpureum Thwaites 1861
+Bulbophyllum pusillum Thouars 1822
+Bulbophyllum pustulatum Ridl. 1898: Blistered Bulbophyllum
+Bulbophyllum putidum (Teijsm. &amp; Binn.) J.J.Sm. 1912
+Bulbophyllum putii Seidenf. 1979
+Bulbophyllum pygmaeum (Sm.) Lindl. 1830
+Bulbophyllum pyridion J.J.Verm. 1991
+Bulbophyllum pyroglossum Schuit. &amp; de Vogel (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bulbophyllum quadrangulare J.J.Sm. 1911: Swollen-belly Bulbophyllum
+Bulbophyllum quadrangulare var. latisepalum J.J.Sm. 1916
+Bulbophyllum quadrangulare var. quadrangulare
+Bulbophyllum quadrangulum Z.H.Tsi 1981
+Bulbophyllum quadrialatum H.Perrier 1939
+Bulbophyllum quadricarinum Kores 1989
+Bulbophyllum quadricaudatum J.J.Sm. 1911
+Bulbophyllum quadrichaete Schltr. 1913
+Bulbophyllum quadricolor (Barb.Rodr.) Cogn. in C.F.P.von Martius &amp; auct. suc. (eds.) 1902
+Bulbophyllum quadrifalciculatum J.J.Sm. 1929
+Bulbophyllum quadrifarium Rolfe 1903
+Bulbophyllum quadrisetum Lindl. 1843
+Bulbophyllum quadrisubulatum J.J.Sm. 1929
+Bulbophyllum quasimodo J.J.Verm. 1991
+Bulbophyllum quinquelobum Schltr. 1913
+Bulbophyllum quinquelobum var. lancilabium Schltr. 1913
+Bulbophyllum quinquelobum var. quinquelobum</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Bulbophyllum racemosum Rolfe 1893
+Bulbophyllum radicans F.M.Bailey 1897
+Bulbophyllum rajanum J.J.Sm. 1927
+Bulbophyllum ramulicola Schuit. &amp; de Vogel 2002
+Bulbophyllum ramulicola Schuit. &amp; de Vogel 2002
+Bulbophyllum ranomafanae Bosser &amp; P.J.Cribb 2001
+Bulbophyllum rariflorum J.J.Sm. 1908
+Bulbophyllum rarum Schltr. 1913
+Bulbophyllum rauhii Toill.-Gen. &amp; Bosser 1961
+Bulbophyllum rauhii var. andranobeense Bosser 1971
+Bulbophyllum rauhii var. rauhii
+Bulbophyllum raui Arora (1969 publ. 1972).
+Bulbophyllum reclusum Seidenf. 1995
+Bulbophyllum rectilabre J.J.Sm. 1912
+Bulbophyllum recurviflorum J.J.Sm. 1903
+Bulbophyllum recurvilabre Garay 1999
+Bulbophyllum reductum J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum reevei J.J.Verm. 1992
+Bulbophyllum reflexiflorum H.Perrier 1937
+Bulbophyllum reflexiflorum subsp. pogonochilum (Summerh.) Bosser 2000
+Bulbophyllum reflexiflorum subsp. reflexiflorum
+Bulbophyllum reflexum Ames &amp; C.Schweinf. in O.Ames 1920
+Bulbophyllum refractilingue J.J.Sm. 1931
+Bulbophyllum refractum (Zoll.) Rchb.f. in W.G.Walpers 1861
+Bulbophyllum regnellii Rchb.f. 1850: Regnell's Bulbophyllum
+Bulbophyllum reichenbachianum Kraenzl. 1893
+Bulbophyllum reichenbachii (Kuntze) Schltr. 1915
+Bulbophyllum reilloi Ames (1913 publ. 1914).
+Bulbophyllum remiferum Carr 1933
+Bulbophyllum renipetalum Schltr. 1913
+Bulbophyllum renkinianum (Laurent) De Wild. 1921
+Bulbophyllum repens Griff. 1851
+Bulbophyllum reptans (Lindl.) Lindl. in N.Wallich 1829: Crawling Bulbophyllum
+Bulbophyllum restrepina Ridl. 1893
+Bulbophyllum resupinatum Ridl. 1887
+Bulbophyllum resupinatum var. filiforme (Kraenzl.) J.J.Verm. 1986: Thread-shaped Bulbophyllum
+Bulbophyllum resupinatum var. resupinatum
+Bulbophyllum reticulatum Bateman ex Hook.f. 1866: Net-like Veined Bulbophyllum
+Bulbophyllum retusiusculum Rchb.f. 1869
+Bulbophyllum retusiusculum var. oreogenes (W.W.Sm.) Z.H.Tsi 1995
+Bulbophyllum retusiusculum var. retusiusculum
+Bulbophyllum retusiusculum var. tigridum (Hance) Z.H.Tsi 1995
+Bulbophyllum rheedei Manilal &amp; Sath.Kumar 1991
+Bulbophyllum rhizomatosum Ames &amp; C.Schweinf. in O.Ames 1920
+Bulbophyllum rhodoglossum Schltr. 1913
+Bulbophyllum rhodoleucum Schltr. 1913
+Bulbophyllum rhodoneuron Schltr. 1913
+Bulbophyllum rhodosepalum Schltr. 1901
+Bulbophyllum rhodostachys Schltr. 1916
+Bulbophyllum rhodostictum Schltr. 1913
+Bulbophyllum rhomboglossum Schltr. 1913
+Bulbophyllum rhopaloblepharon Schltr. 1913
+Bulbophyllum rhopalophorum Schltr. 1913
+Bulbophyllum rhynchoglossum Schltr. 1910
+Bulbophyllum ricaldonei Leite 1948
+Bulbophyllum rienanense H.Perrier 1937
+Bulbophyllum rigidifilum J.J.Sm. 1920
+Bulbophyllum rigidipes Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum rigidum King &amp; Pantl. 1895: Rigid Bulbophyllum
+Bulbophyllum riparium J.J.Sm. 1929
+Bulbophyllum rivulare Schltr. 1913
+Bulbophyllum riyanum Fukuy. 1935
+Bulbophyllum rojasii L.O.Williams 1940
+Bulbophyllum rolfei (Kuntze) Seidenf. 1979
+Bulbophyllum romburghii J.J.Sm. 1907
+Bulbophyllum roraimense Rolfe 1896
+Bulbophyllum rosemarianum Sath.Kumar 2001
+Bulbophyllum roseopunctatum Schltr. 1913
+Bulbophyllum rostriceps Rchb.f. 1878
+Bulbophyllum rothschildianum (O'Brien) J.J.Sm. 1912: Rothschild's Bulbophyylum
+Bulbophyllum roxburghii (Lindl.) Rchb.f. in W.G.Walpers 1861
+Bulbophyllum rubiferum J.J.Sm. 1918
+Bulbophyllum rubiginosum Schltr. 1925
+Bulbophyllum rubipetalum P.Royen 1979
+Bulbophyllum rubroguttatum Seidenf. 1985
+Bulbophyllum rubrolabellum T.P.Lin 1975
+Bulbophyllum rubrolabium Schltr. 1916
+Bulbophyllum rubrolineatum Schltr. 1923
+Bulbophyllum rubromaculatum W.Kittr. (1984 publ. 1985).
+Bulbophyllum rubrum Jum. &amp; H.Perrier 1912
+Bulbophyllum ruficaudatum Ridl. 1910
+Bulbophyllum rufilabrum C.S.P.Parish ex Hook.f. 1890: Fox-red Lip Bulbophyllum
+Bulbophyllum rufinum Rchb.f. 1881: Fox-red Bulbophyllum
+Bulbophyllum rugosibulbum Summerh. 1960
+Bulbophyllum rugosisepalum Seidenf. 1979
+Bulbophyllum rugosum Ridl. 1897
+Bulbophyllum rugulosum J.J.Sm. 1935
+Bulbophyllum rupestre J.J.Sm. 1915
+Bulbophyllum rupicola Barb.Rodr. 1877: Rock-growing Bulbophyllum
+Bulbophyllum rutenbergianum Schltr. 1924</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bulbophyllum saccolabioides J.J.Sm. 1929
+Bulbophyllum salaccense Rchb.f. 1857
+Bulbophyllum salebrosum J.J.Sm. 1927
+Bulbophyllum saltatorium Lindl. 1837: Dancing Bulbophyllum
+Bulbophyllum saltatorium var. albociliatum (Finet) J.J.Verm. 1986
+Bulbophyllum saltatorium var. calamarium (Lindl.) J.J.Verm. 1986
+Bulbophyllum saltatorium var. saltatorium
+Bulbophyllum sambiranense Jum. &amp; H.Perrier 1912
+Bulbophyllum samoanum Schltr. 1911: Samoan Bulbophyllum
+Bulbophyllum sanderianum Rolfe 1893
+Bulbophyllum sandersonii (Hook.f.) Rchb.f. 1878
+Bulbophyllum sandersonii subsp. sandersonii
+Bulbophyllum sandersonii subsp. stenopetalum (Kraenzl.) J.J.Verm. 1986
+Bulbophyllum sandrangatense Bosser 1965
+Bulbophyllum sangae Schltr. 1905
+Bulbophyllum sanguineopunctatum Seidenf. &amp; A.D.Kerr (1973 publ. 1974)
+Bulbophyllum sanguineum H.Perrier 1937
+Bulbophyllum sanitii Seidenf. 1970
+Bulbophyllum santoense J.J.Verm. 1993
+Bulbophyllum santosii Ames 1915: Santos' Bulbophyllum
+Bulbophyllum sapphirinum Ames 1915
+Bulbophyllum sarasinorum Schltr. 1925
+Bulbophyllum sarcanthiforme Ridl. 1916
+Bulbophyllum sarcodanthum Schltr. 1913
+Bulbophyllum sarcophylloides Garay, Hamer &amp; Siegerist 1994: Sarcophyllum-like Bulbophyllum
+Bulbophyllum sarcophyllum (King &amp; Pantl.) J.J.Sm. 1912: Fleshy Red-leafed Bulbophyllum
+Bulbophyllum sarcorhachis Schltr. 1918
+Bulbophyllum sarcorhachis var. befaonense (Schltr.) H.Perrier 1937
+Bulbophyllum sarcorhachis var. sarcorhachis
+Bulbophyllum sarcoscapum Teijsm. &amp; Binn. 1867
+Bulbophyllum saronae Garay 1999: Sharon's Bulbophyllum
+Bulbophyllum sauguetiense Schltr. 1913
+Bulbophyllum saurocephalum Rchb.f. 1886: Lizard's Head Bulbophyllum
+Bulbophyllum savaiense Schltr. 1911
+Bulbophyllum savaiense subsp. gorumense (Schltr.) J.J.Verm. 1993
+Bulbophyllum savaiense subsp. savaiense
+Bulbophyllum savaiense subsp. subcubicum (J.J.Sm.) J.J.Verm. 1993
+Bulbophyllum sawiense J.J.Sm. 1912
+Bulbophyllum scaberulum (Rolfe) Bolus 1889: Slightly-roughened Bulbophyllum
+Bulbophyllum scaberulum var. crotalicaudatum J.J.Verm. 1987
+Bulbophyllum scaberulum var. fuerstenbergianum (De Wild.) J.J.Verm. 1986
+Bulbophyllum scaberulum var. scaberulum
+Bulbophyllum scabratum Rchb.f. in W.G.Walpers 1861: Rough Bulbophyllum
+Bulbophyllum scabrum J.J.Verm. &amp; A.L.Lamb 1988
+Bulbophyllum scaphiforme J.J.Verm. 2002: Boat-shaped Bulbophyllum
+Bulbophyllum scaphosepalum Ridl. 1916
+Bulbophyllum scariosum Summerh. 1953
+Bulbophyllum sceliphron J.J.Verm. 1991
+Bulbophyllum scheffleri (Kuntze) Schltr. 1915
+Bulbophyllum schillerianum Rchb.f. 1860: Schiller's Bulbophyllum
+Bulbophyllum schimperianum Kraenzl. 1902
+Bulbophyllum schinzianum Kraenzl. 1899
+Bulbophyllum schinzianum var. irigaleae (P.J.Cribb &amp; Pérez-Vera) J.J.Verm. 1987
+Bulbophyllum schinzianum var. phaeopogon (Schltr.) J.J.Verm. 1986
+Bulbophyllum schinzianum var. schinzianum
+Bulbophyllum schistopetalum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum schizopetalum L.O.Williams 1946
+Bulbophyllum schmidii Garay 1999: Schmid's Bulbophyllum
+Bulbophyllum schmidtianum Rchb.f. 1865
+Bulbophyllum sciadanthum F.Muell. 1882
+Bulbophyllum sciaphile Bosser 1965
+Bulbophyllum scintilla Ridl. 1908
+Bulbophyllum scitulum Ridl. 1916
+Bulbophyllum scopa J.J.Verm. 1990
+Bulbophyllum scopula Schltr. 1913
+Bulbophyllum scotiifolium J.J.Sm. 1918
+Bulbophyllum scrobiculilabre J.J.Sm. 1914
+Bulbophyllum scutiferum J.J.Verm. 1993
+Bulbophyllum scyphochilus Schltr. 1912
+Bulbophyllum scyphochilus var. phaeanthum Schltr. 1912
+Bulbophyllum scyphochilus var. scyphochilus
+Bulbophyllum secundum Hook.f. 1890
+Bulbophyllum semiasperum J.J.Sm. 1934
+Bulbophyllum semiteres Schltr. 1913
+Bulbophyllum semiteretifolium Gagnep. 1930
+Bulbophyllum semperflorens J.J.Sm. 1907
+Bulbophyllum sempiternum Ames 1920
+Bulbophyllum sensile Ames 1915
+Bulbophyllum sepikense W.Kittr. (1984 publ. 1985)
+Bulbophyllum septatum Schltr. 1924
+Bulbophyllum septemtrionale (J.J.Sm.) J.J.Sm. 1913
+Bulbophyllum serra Schltr. 1913: Toothed Bulbophyllum
+Bulbophyllum serratotruncatum Seidenf. (1973 publ. 1974)
+Bulbophyllum serripetalum Schltr. 1923
+Bulbophyllum serrulatifolium J.J.Sm. 1929
+Bulbophyllum serrulatum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum sessiliflorum Kraenzl. in H.G.Reichenbach 1896
+Bulbophyllum setaceum T.P.Lin 1975: Bristly Bulbophyllum
+Bulbophyllum setigerum Lindl. 1838
+Bulbophyllum setuliferum J.J.Verm. &amp; Saw 2000
+Bulbophyllum shanicum King &amp; Pantl. 1897
+Bulbophyllum shepherdii (F.Muell.) Rchb.f. 1871: Shephard's Bulbophyllum
+Bulbophyllum shweliense W.W.Sm. 1921: Shweil Bulbophyllum
+Bulbophyllum sibuyanense Ames 1912
+Bulbophyllum sicyobulbon C.S.P.Parish &amp; Rchb.f. 1874
+Bulbophyllum siederi Garay 1999: Sieder's Bulbophyllum
+Bulbophyllum sigaldiae Guillaumin 1955
+Bulbophyllum sigmoideum Ames &amp; C.Schweinf. in O.Ames 1920
+Bulbophyllum signatum J.J.Verm. 1996: Marked Bulbophyllum
+Bulbophyllum sikapingense J.J.Sm. 1920
+Bulbophyllum silentvalliensis M.P.Sharma &amp; S.K.Srivast. 1993
+Bulbophyllum sillenianum Rchb.f. 1884
+Bulbophyllum similare Garay, Hamer &amp; Siegerist 1994
+Bulbophyllum simile Schltr.1913
+Bulbophyllum similissimum J.J.Verm. 1991
+Bulbophyllum simmondsii Kores 1989
+Bulbophyllum simondii Gagnep. 1950
+Bulbophyllum simplex J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum simplicilabellum Seidenf. 1979
+Bulbophyllum simulacrum Ames 1915
+Bulbophyllum sinapis J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum singaporeanum Schltr. 1911
+Bulbophyllum singulare Schltr. 1913: Outstanding Bulbophyllum
+Bulbophyllum singuliflorum W.Kittr. (1984 publ. 1985)
+Bulbophyllum skeatianum Ridl. 1915
+Bulbophyllum smithianum Schltr. 1911
+Bulbophyllum smitinandii Seidenf. &amp; Thorut 1996
+Bulbophyllum sociale Rolfe 1918
+Bulbophyllum solteroi R.González 1992
+Bulbophyllum sopoetanense Schltr. 1911: Mt. Sopoetan Bulbophyllum
+Bulbophyllum sordidum Lindl. 1840
+Bulbophyllum sororculum J.J.Verm. 2002
+Bulbophyllum spadiciflorum Tixier 1966
+Bulbophyllum spathaceum Rolfe 1893
+Bulbophyllum spathilingue J.J.Sm. 1908
+Bulbophyllum spathipetalum J.J.Sm. 1908
+Bulbophyllum spathulatum (Rolfe ex E.Cooper) Seidenf. 1970
+Bulbophyllum speciosum Schltr. 1912: Outstanding Bulbophyllum
+Bulbophyllum sphaeracron Schltr. 1913
+Bulbophyllum sphaericum Z.H.Tsi &amp; H.Li 1981
+Bulbophyllum sphaerobulbum H.Perrier 1937
+Bulbophyllum spissum J.J.Verm. 1996
+Bulbophyllum spongiola J.J.Verm. 1996
+Bulbophyllum stabile J.J.Sm. 1911
+Bulbophyllum steffensii Schltr. 1925
+Bulbophyllum stelis J.J.Sm. 1927
+Bulbophyllum stellatum Ames 1912: Star-like Bulbophyllum
+Bulbophyllum stellula Ridl. 1916
+Bulbophyllum stenobulbon C.S.P.Parish &amp; Rchb.f. 1874: Slender-bulbed Bulbophyllum
+Bulbophyllum stenochilum Schltr. 1913
+Bulbophyllum stenophyllum C.S.P.Parish &amp; Rchb.f. 1874
+Bulbophyllum stenophyton (Garay &amp; W.Kittr.) ined.
+Bulbophyllum stenorhopalon Schltr. 1921
+Bulbophyllum stenurum J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum sterile (Lam.) Suresh in D.H.Nicolson, C.R.Suresh &amp; K.S.Manilal 1988: Tailed Bulbophyllum
+Bulbophyllum steyermarkii Foldats 1968: Steyermark's Bulbophyllum
+Bulbophyllum stictanthum Schltr. 1913
+Bulbophyllum stictosepalum Schltr. 1913
+Bulbophyllum stipitatibulbum J.J.Sm. 1931
+Bulbophyllum stipulaceum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum stolleanum Schltr. 1923
+Bulbophyllum stolzii Schltr. 1915
+Bulbophyllum stormii J.J.Sm. 1907: Storm's Bulbophyllum
+Bulbophyllum streptotriche J.J.Verm. 1991
+Bulbophyllum striatellum Ridl. 1890
+Bulbophyllum striatum (Griff.) Rchb.f. in W.G.Walpers 1861
+Bulbophyllum suavissimum Rolfe 1889: Mild Bulbophyllum
+Bulbophyllum subaequale Ames 1923
+Bulbophyllum subapetalum J.J.Sm. 1915
+Bulbophyllum subapproximatum H.Perrier 1937
+Bulbophyllum subbullatum J.J.Verm. 1996
+Bulbophyllum subclausum J.J.Sm. 1909
+Bulbophyllum subclavatum Schltr. 1925
+Bulbophyllum subcrenulatum Schltr. 1925
+Bulbophyllum subebulbum Gagnep. 1950
+Bulbophyllum subligaculiferum J.J.Verm. 1987
+Bulbophyllum submarmoratum J.J.Sm. 1918
+Bulbophyllum subpatulum J.J.Verm. 2002
+Bulbophyllum subsecundum Schltr. 1916
+Bulbophyllum subsessile Schltr. 1924
+Bulbophyllum subtenellum Seidenf. 1979: Very Delicate Bulbophyllum
+Bulbophyllum subtrilobatum Schltr. 1913
+Bulbophyllum subuliferum Schltr. 1911
+Bulbophyllum subulifolium Schltr. 1913
+Bulbophyllum subumbellatum Ridl. 1896: Subumbellate Bulbophyllum
+Bulbophyllum subverticillatum Ridl. 1925
+Bulbophyllum succedaneum J.J.Sm. 1927
+Bulbophyllum sukhakulii Seidenf. 1995
+Bulbophyllum sulawesii Garay, Hamer &amp; Siegerist 1996: Sulawesi Bulbophyllum
+Bulbophyllum sulcatum (Blume) Lindl. 1830
+Bulbophyllum sulfureum Schltr. 1924: Sulphur-yellow Bulbophyllum
+Bulbophyllum superfluum Kraenzl. 1929
+Bulbophyllum superpositum Schltr. 1913
+Bulbophyllum supervacaneum Kraenzl. 1929
+Bulbophyllum surigaense Ames &amp; Quisumb. (1933 publ. 1934)
+Bulbophyllum sutepense (Rolfe ex Downie) Seidenf. &amp; Smitinand 1961
+Bulbophyllum systenochilum J.J.Verm. 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bulbophyllum taeniophyllum C.S.P.Parish &amp; Rchb.f. 1874
+Bulbophyllum taeter J.J.Verm. 1996
+Bulbophyllum tahanense Carr 1930
+Bulbophyllum tahitense Nadeaud 1873
+Bulbophyllum taiwanense (Fukuy.) K.Nakaj. 1973
+Bulbophyllum talauense (J.J.Sm.) Carr 1932
+Bulbophyllum tampoketsense H.Perrier 1937
+Bulbophyllum tanystiche J.J.Verm. 1993
+Bulbophyllum tardeflorens Ridl. 1896
+Bulbophyllum tectipes J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum tectipetalum J.J.Sm. 1929
+Bulbophyllum tectipetalum var. longisepalum J.J.Sm. 1929
+Bulbophyllum tectipetalum var. maximum J.J.Sm. 1929
+Bulbophyllum tectipetalum var. tectipetalum
+Bulbophyllum tekuense Carr 1930
+Bulbophyllum tenellum (Blume) Lindl. 1830: Very Delicate Bead Necklace Bulbophyllum
+Bulbophyllum tengchongense Z.H.Tsi 1989
+Bulbophyllum tenompokense J.J.Sm. 1934
+Bulbophyllum tentaculatum Schltr. 1913
+Bulbophyllum tentaculiferum Schltr. 1913: Tentacle-carrying Bulbophyllum
+Bulbophyllum tenue Schltr. 1913
+Bulbophyllum tenuifolium (Blume) Lindl. 1830
+Bulbophyllum tenuipes Schltr. 1913
+Bulbophyllum teres Carr 1935
+Bulbophyllum teresense Ruschi 1946
+Bulbophyllum teretibulbum H.Perrier 1937
+Bulbophyllum teretifolium Schltr. 1905
+Bulbophyllum teretilabre J.J.Sm. 1913
+Bulbophyllum ternatense J.J.Sm. 1932
+Bulbophyllum tetragonum Lindl. 1830
+Bulbophyllum teysmannii J.J.Sm. 1905
+Bulbophyllum thaiorum J.J.Sm. 1912: Thailand Bulbophyllum
+Bulbophyllum theioglossum Schltr. 1913
+Bulbophyllum thelantyx J.J.Verm. 1993
+Bulbophyllum therezienii Bosser 1971
+Bulbophyllum thersites J.J.Verm. 1993
+Bulbophyllum theunissenii J.J.Sm. 1920
+Bulbophyllum thomense Summerh. 1937
+Bulbophyllum thompsonii Ridl. 1885: Thompson's Bulbophyllum
+Bulbophyllum thrixspermiflorum J.J.Sm. 1908
+Bulbophyllum thrixspermoides J.J.Sm. 1912
+Bulbophyllum thwaitesii Rchb.f. 1874
+Bulbophyllum thymophorum J.J.Verm. &amp; A.L.Lamb 1988
+Bulbophyllum titanea Ridl. 1908
+Bulbophyllum tixieri Seidenf. 1992: Tixier's Bulbophyllum
+Bulbophyllum tjadasmalangense J.J.Sm. 1918
+Bulbophyllum toilliezae Bosser 1965
+Bulbophyllum tokioi Fukuy. 1935
+Bulbophyllum toppingii Ames (1913 publ. 1914)
+Bulbophyllum toranum J.J.Sm. 1912
+Bulbophyllum torquatum J.J.Sm. 1929
+Bulbophyllum torricellense Schltr. 1913
+Bulbophyllum tortum Schltr. 1913: Twisted-flower Bulbophyllum
+Bulbophyllum tortuosum (Blume) Lindl. 1830: Twisted-bulb Bulbophyllum
+Bulbophyllum trachyanthum Kraenzl. 1894: Rough-flowered Bulbophyllum
+Bulbophyllum trachybracteum Schltr. 1913
+Bulbophyllum trachyglossum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum trachypus Schltr. 1913
+Bulbophyllum tremulum Wight 1851: Tremulous Bulbophyllum
+Bulbophyllum triadenium (Lindl.) Rchb.f. in W.G.Walpers 1861
+Bulbophyllum triandrum Schltr. 1913
+Bulbophyllum triaristella Schltr. 1913
+Bulbophyllum tricanaliferum J.J.Sm. 1913
+Bulbophyllum tricarinatum Petch 1923
+Bulbophyllum trichaete Schltr. 1913
+Bulbophyllum trichambon Schltr. 1913
+Bulbophyllum trichocephalum (Schltr.) Tang &amp; F.T.Wang 1951: Hairy-headed Bulbophyllum
+Bulbophyllum trichochlamys H.Perrier 1937
+Bulbophyllum trichorhachis J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum trichromum Schltr. 1923
+Bulbophyllum triclavigerum J.J.Sm. 1913
+Bulbophyllum tricolor L.B.Sm. &amp; S.K.Harris 1936
+Bulbophyllum tricorne Seidenf. &amp; Smitinand 1965: Three-horned Bulbophyllum
+Bulbophyllum tricornoides Seidenf. 1979
+Bulbophyllum tridentatum Kraenzl. 1901: Three-toothed Bulbophyllum
+Bulbophyllum trifarium Rolfe 1910
+Bulbophyllum trifilum J.J.Sm. 1908
+Bulbophyllum trifilum subsp. filisepalum (J.J.Sm.) J.J.Verm. (2002 publ. 2003)
+Bulbophyllum trifilum subsp. trifilum
+Bulbophyllum triflorum (Breda) Blume 1828
+Bulbophyllum trifolium Ridl. 1897
+Bulbophyllum trigonidioides J.J.Sm. 1935
+Bulbophyllum trigonobulbum Schltr. &amp; J.J.Sm. 1914
+Bulbophyllum trigonocarpum Schltr. in K.M.Schumann &amp; C.A.G.Lauterbach 1905
+Bulbophyllum trilineatum H.Perrier 1937
+Bulbophyllum trimenii (Hook.f.) J.J.Sm. 1912
+Bulbophyllum trinervium J.J.Sm. 1935
+Bulbophyllum tripaleum Seidenf. 1979
+Bulbophyllum tripetalum Lindl. 1842
+Bulbophyllum tripudians C.S.P.Parish &amp; Rchb.f. 1875
+Bulbophyllum trirhopalon Schltr. 1913
+Bulbophyllum triste Rchb.f. in W.G.Walpers 1861: Dark Bulbophyllum
+Bulbophyllum tristelidium W.Kittr. (1984 publ. 1985)
+Bulbophyllum triurum Kraenzl. 1904
+Bulbophyllum triviale Seidenf. 1979
+Bulbophyllum trulliferum J.J.Verm. &amp; A.L.Lamb 1994
+Bulbophyllum truncatum J.J.Sm. 1913
+Bulbophyllum truncicola Schltr. 1913
+Bulbophyllum tryssum J.J.Verm. &amp; A.L.Lamb 1994
+Bulbophyllum tseanum (S.Y.Hu &amp; Barretto) Z.H.Tsi 1999
+Bulbophyllum tuberculatum Colenso 1884
+Bulbophyllum tubilabrum J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum tumidum J.J.Verm. 1991
+Bulbophyllum tumoriferum Schltr. 1913
+Bulbophyllum turgidum J.J.Verm. 1991
+Bulbophyllum turkii Bosser &amp; P.J.Cribb 2001
+Bulbophyllum turpe J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum tylophorum Schltr. 1911</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bulbophyllum ulcerosum J.J.Sm. 1910
+Bulbophyllum umbellatum Lindl. 1830: Umbrella Bulbophyllum
+Bulbophyllum umbellatum var. fuscescens (Hook.f.) P.K.Sarkar 1984
+Bulbophyllum umbellatum var. umbellatum
+Bulbophyllum umbonatum Kraenzl. 1916
+Bulbophyllum umbraticola Schltr. 1913
+Bulbophyllum uncinatum J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum unciniferum Seidenf. 1973
+Bulbophyllum undatilabre J.J.Sm. 1912
+Bulbophyllum undecifilum J.J.Sm. 1927
+Bulbophyllum unguiculatum Rchb.f. 1850
+Bulbophyllum unguilabium Schltr. 1913
+Bulbophyllum unicaudatum Schltr. 1913
+Bulbophyllum unicaudatum var. unicaudatum
+Bulbophyllum unicaudatum var. xanthosphaerum Schltr. 1913
+Bulbophyllum uniflorum (Blume) Hassk. 1844: Single-flowered Bulbophyllum
+Bulbophyllum unifoliatum De Wild. 1921
+Bulbophyllum unifoliatum subsp. flectens (P.J.Cribb &amp; P.Taylor) J.J.Verm. 1987
+Bulbophyllum unifoliatum subsp. infracarinatum (G.Will.) J.J.Verm. 1987
+Bulbophyllum unifoliatum subsp. unifoliatum
+Bulbophyllum unitubum J.J.Sm. 1929: Single-tubed Bulbophyllum
+Bulbophyllum univenum J.J.Verm. 1993
+Bulbophyllum urceolatum A.D.Hawkes 1952
+Bulbophyllum uroglossum Schltr. 1921
+Bulbophyllum urosepalum Schltr. 1913
+Bulbophyllum ustusfortiter J.J.Verm. 1993
+Bulbophyllum uviflorum P.O'Byrne 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bulbophyllum vaccinioides Schltr. 1913
+Bulbophyllum vagans Ames &amp; Rolfe 1907
+Bulbophyllum vaginatum (Lindl.) Rchb.f. in W.G.Walpers 1861: Vagina Bulbophyllum
+Bulbophyllum valeryi J.J.Verm. &amp; P.O'Byrne 2003
+Bulbophyllum validum Carr 1933
+Bulbophyllum vanessa King &amp; Pantl. 1897
+Bulbophyllum vanum J.J.Verm. 1984
+Bulbophyllum vanvuurenii J.J.Sm. 1917: Van Vuuren's Bulbophyllum
+Bulbophyllum vareschii Foldats 1968
+Bulbophyllum variabile Ridl. 1898
+Bulbophyllum variegatum Thouars 1822
+Bulbophyllum ventriosum H.Perrier 1937
+Bulbophyllum vermiculare Hook.f. 1890
+Bulbophyllum verruciferum Schltr. 1913
+Bulbophyllum verruciferum var. carinatisepalum Schltr. 1913
+Bulbophyllum verruciferum var. verruciferum
+Bulbophyllum verruculatum Schltr. 1913
+Bulbophyllum verruculiferum H.Perrier 1951
+Bulbophyllum versteegii J.J.Sm. 1908
+Bulbophyllum vesiculosum J.J.Sm. 1917
+Bulbophyllum vestitum Bosser 1971
+Bulbophyllum vestitum var. meridionale Bosser 1971
+Bulbophyllum vestitum var. vestitum
+Bulbophyllum vexillarium Ridl. 1916
+Bulbophyllum vietnamense Seidenf. 1975
+Bulbophyllum viguieri Schltr. 1922
+Bulbophyllum vinaceum Ames &amp; C.Schweinf. in O.Ames 1920: Wine-red Bulbophyllum
+Bulbophyllum violaceolabellum Seidenf. 1981
+Bulbophyllum violaceum (Blume) Lindl. 1830: Violet Bulbophyllum
+Bulbophyllum virescens J.J.Sm. 1900: Greenish Bulbophyllum
+Bulbophyllum viridiflorum (Hook.f.) Schltr. 1910
+Bulbophyllum vitellinum Ridl. 1897
+Bulbophyllum vittatum Teijsm. &amp; Binn. 1862
+Bulbophyllum volkensii Schltr. 1914
+Bulbophyllum vulcanicum Kraenzl. 1914
+Bulbophyllum vulcanorum H.Perrier 1938
+Bulbophyllum vutimenaense B.A.Lewis 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bulbophyllum wadsworthii Dockrill 1964
+Bulbophyllum wagneri Schltr. 1921
+Bulbophyllum wakoi Howcroft 1999
+Bulbophyllum wallichii Rchb.f. in W.G.Walpers 1861
+Bulbophyllum wangkaense Seidenf. 1979
+Bulbophyllum warianum Schltr. 1913
+Bulbophyllum warmingianum Cogn. 1902: Warming's Bulbophyllum
+Bulbophyllum weberbauerianum Kraenzl. 1905
+Bulbophyllum weberi Ames 1912
+Bulbophyllum weddelii (Lindl.) Rchb.f. in W.G.Walpers 1861: Weddel's Bulbophyllum
+Bulbophyllum weinthalii R.S.Rogers 1933: Weinthal's Bulbophyllum
+Bulbophyllum weinthalii subsp. striatum D.L.Jones 2001
+Bulbophyllum weinthalii subsp. weinthalii
+Bulbophyllum wendlandianum (Kraenzl.) J.J.Sm. 1912: Wendland's Bulbophyllum
+Bulbophyllum wenzelii Ames (1913 publ. 1914)
+Bulbophyllum werneri Schltr. 1913: Werner's Bulbophyllum
+Bulbophyllum whitfordii Rolfe in O.Ames 1905
+Bulbophyllum wightii Rchb.f. in W.G.Walpers 1861
+Bulbophyllum wilkianum T.E.Hunt 1947
+Bulbophyllum williamsii A.D.Hawkes 1956
+Bulbophyllum windsorense B.Gray &amp; D.L.Jones 1989
+Bulbophyllum woelfliae Garay, Senghas &amp; K.Lemcke 1996
+Bulbophyllum wolfei B.Gray &amp; D.L.Jones 1991
+Bulbophyllum wollastonii Ridl. 1916
+Bulbophyllum wrayi Hook.f. 1890
+Bulbophyllum wuzhishanense X.H.Jin (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Bulbophyllum xantanthum Schltr. 1911
+Bulbophyllum xanthoacron J.J.Sm. 1911
+Bulbophyllum xanthobulbum Schltr. 1918
+Bulbophyllum xanthochlamys Schltr. 1913
+Bulbophyllum xanthophaeum Schltr. 1913
+Bulbophyllum xanthornis Schuit. &amp; de Vogel 2002
+Bulbophyllum xanthornis Schuit. &amp; de Vogel 2002
+Bulbophyllum xanthotes Schltr. 1913
+Bulbophyllum xanthum Ridl. 1920
+Bulbophyllum xenosum J.J.Verm. 1996
+Bulbophyllum xiphion J.J.Verm. 1996
+Bulbophyllum xylocarpi J.J.Sm. 1927
+Bulbophyllum xylophyllum C.S.P.Parish &amp; Rchb.f. 1874</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Bulbophyllum yoksunense J.J.Sm. 1912
+Bulbophyllum yuanyangense Z.H.Tsi 1995
+Bulbophyllum yunnanense Rolfe 1901</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Bulbophyllum</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bulbophyllum zambalense Ames 1912
+Bulbophyllum zamboangense Ames (1913 publ. 1914)
+Bulbophyllum zaratananae Schltr. 1924
+Bulbophyllum zebrinum J.J.Sm. 1911</t>
         </is>
       </c>
     </row>
